--- a/Burnout_Cost_Calculator.xlsx
+++ b/Burnout_Cost_Calculator.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_0BF851FC2CBCA382C5110D50B6EF67CA5F92BFE5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pkelley/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0B1C2E-8F43-EB4C-983F-3BCCC3F7CF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12740" yWindow="-21240" windowWidth="27280" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burnout Cost Calculator" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Burnout Cost Factors</t>
   </si>
@@ -66,26 +68,21 @@
     <t>Turnover Cost ($)</t>
   </si>
   <si>
-    <t>Lost Productivity Cost ($)</t>
-  </si>
-  <si>
-    <t>Absenteeism Cost ($)</t>
-  </si>
-  <si>
-    <t>Healthcare Cost ($)</t>
-  </si>
-  <si>
-    <t>Total Estimated Burnout Cost ($)</t>
+    <t>Turnover Cost Due to Burnout ($)</t>
+  </si>
+  <si>
+    <t>Productivity Loss Cost Due to Burnout ($)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\$#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -151,6 +148,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,17 +455,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="50.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,15 +475,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -489,7 +491,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -497,7 +499,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -505,7 +507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -513,15 +515,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -529,7 +531,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -537,339 +539,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="3">
         <f>B3*B2*B4</f>
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="e">
-        <f>B3*B5*B1</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
+      <c r="B12" s="6">
+        <f>B2*B3*B4*B5</f>
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="e">
-        <f>(B3/260)*B6*B1</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="e">
-        <f>B7*(B1*B2)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="e">
-        <f>SUM(B9:B12)</f>
-        <v>#VALUE!</v>
+      <c r="B13" s="6">
+        <f>B2*B4*B6</f>
+        <v>4800000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a4e24838-0261-4543-bb56-fe8de561f1fb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="cfd9d1d3-afd1-4c50-8283-ff5c254fcd9c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B0871C2840F51F4CA0F5F2489C67498A" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e1e8b63be3d1eaa3bf7aeb57a32b0dd6">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a4e24838-0261-4543-bb56-fe8de561f1fb" xmlns:ns3="cfd9d1d3-afd1-4c50-8283-ff5c254fcd9c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1790665532da1b38498512bef772fb1c" ns2:_="" ns3:_="">
-    <xsd:import namespace="a4e24838-0261-4543-bb56-fe8de561f1fb"/>
-    <xsd:import namespace="cfd9d1d3-afd1-4c50-8283-ff5c254fcd9c"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a4e24838-0261-4543-bb56-fe8de561f1fb" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="23" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e64884b4-af35-43d5-b55d-411bb21e5563" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cfd9d1d3-afd1-4c50-8283-ff5c254fcd9c" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{69a33b6f-9a5f-4a44-b93e-729698ea6df4}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="cfd9d1d3-afd1-4c50-8283-ff5c254fcd9c">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F573E14-5482-4635-B81D-A32115297A3F}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{211BFCBC-0734-4FFE-B6E9-622CFD1E374A}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE67A5A9-691C-4593-86FB-C5D9B23633A5}"/>
 </file>